--- a/medicine/Enfance/Paule_Lavergne/Paule_Lavergne.xlsx
+++ b/medicine/Enfance/Paule_Lavergne/Paule_Lavergne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paule Lavergne, pseudonyme de Paule Dumur (née à Gajoubert le 16 mars 1897, morte à Bellac le 3 juillet 1984), est une écrivaine française.
 Institutrice, puis directrice d'école dans la Haute-Vienne, elle a écrit des romans pour adultes, des recueils de contes de sa région natale, le Limousin, des poèmes et des livres pour enfants. Elle est la mère de l'acteur français Jacques Dumur.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paule Lavergne est née le 16 mars 1897 à Sainte-Marie, faubourg de Champeaux, aujourd’hui commune de Gajoubert près de Mézières-sur-Issoire.
 Après des études à l’école normale d’institutrices de Limoges, elle en sort diplômée en 1917. Elle commence sa carrière à Cieux, deux années, puis aux Courtioux de Darnac avant d’être nommée en 1920 à Mézières-sur-Issoire.
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres pour adultes
-La Joie de l'été, poèmes, Tablettes St Raphael, 1925
+          <t>Œuvres pour adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Joie de l'été, poèmes, Tablettes St Raphael, 1925
 Printemps, roman, Gallimard, 1939 (Présenté au prix Goncourt)
 Le  Maître, roman, Gallimard, 1942
 Escale sur la terre, poèmes, Rougerie, 1961
@@ -562,9 +581,43 @@
 Le Zodiaque et la Ville, poèmes, Millas-Martin, 1971
 Au bal de la vie, poèmes, Paragraphes littéraires, 1972
 Ombres chinoises, poèmes, Paragraphes littéraires, 1975
-Vacillantes chandelles, poèmes, Pour compte auteur, 1982
-Œuvres pour enfants
-Village couleur du temps, livre pédagogique (partie histoires), SD
+Vacillantes chandelles, poèmes, Pour compte auteur, 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paule_Lavergne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paule_Lavergne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Œuvres pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Village couleur du temps, livre pédagogique (partie histoires), SD
 L'Enfant sous les charmes, Gallimard, 1946 (ill. Élie Lascaux)
 Le Roman de la fourmi, Hachette, 1950 (ill. Raylambert)
 Voyageurs du printemps, Magnard, 1963
@@ -576,9 +629,43 @@
 Hirondelles, hérissons, campanules, Magnard, 1972
 La Grosse Pijassée, Magnard, 1973
 Sansonnet, Sansonnette, coauteur avec Marc Michon, Magnard, 1975
-Nez-Pointu hérisson, Magnard, 1977
-Recueils de contes
-La Splendide Luppé (compte d'auteur 1939, reéd. SUDEL, août 1957 collection « Jeunes »)
+Nez-Pointu hérisson, Magnard, 1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paule_Lavergne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paule_Lavergne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de contes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Splendide Luppé (compte d'auteur 1939, reéd. SUDEL, août 1957 collection « Jeunes »)
 Contes de l'Issoire, Rougerie, 1962
 Histoires et Légendes de Gajoubert, Dassagne, 1967
 Histoire de Mortemart, (partie légendes), Rougerie, fin années 60
